--- a/xlsx/聯合國_intext.xlsx
+++ b/xlsx/聯合國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>UN (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_聯合國</t>
+    <t>体育运动_体育运动_体育_聯合國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
